--- a/app/tables/output.xlsx
+++ b/app/tables/output.xlsx
@@ -6,96 +6,183 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="oui" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">Année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investissements spécifiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investissements intégrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total investissements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Études</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total investissements et études</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,6748921464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199,6748921464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,43337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177,43337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,3654614525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196,3654614525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,658639536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154,658639536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,8028556162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189,8028556162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,2796892404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170,2796892404</t>
   </si>
   <si>
     <t xml:space="preserve">2012</t>
   </si>
   <si>
+    <t xml:space="preserve">18,3787580877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206,8754532224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 nouveau champ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,2112394983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216,5374301933</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013</t>
   </si>
   <si>
+    <t xml:space="preserve">15,9944486885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213,6129969688</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
+    <t xml:space="preserve">19,4457578509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254,4098511384</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015</t>
   </si>
   <si>
+    <t xml:space="preserve">17,989030234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259,6359184553</t>
+  </si>
+  <si>
     <t xml:space="preserve">2016</t>
   </si>
   <si>
+    <t xml:space="preserve">21,4957211984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205,5280571795</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017</t>
   </si>
   <si>
+    <t xml:space="preserve">27,4621621293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185,3527953986</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018</t>
   </si>
   <si>
+    <t xml:space="preserve">29,3248488613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217,1600475577</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensemble des investissements et études</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Études</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investissements </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type d'investissement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intégrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spécifiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domaine d'investissement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eaux usées </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limitation des gaz à effet de serre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sols, eaux </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déchets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruits et vibrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sites, paysages, biodiversité et autres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part d'établissements ayant investi ou réalisé des études</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source : agreste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champ : 2019</t>
+    <t xml:space="preserve">24,7027610286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247,0022832698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investissements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note de lecture : Petite explication rapide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source : Agreste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champ : France métro 2019</t>
   </si>
 </sst>
 </file>
@@ -513,7 +600,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -521,464 +608,362 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>90</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>216.5374301933</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>213.6129969688</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>254.4098511384</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>259.6359184553</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>205.5280571795</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>185.3527953986</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>217.1600475577</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>247.0022832698</v>
+        <v>127</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>188</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>20.2112394983</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>15.9944486885</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>19.4457578509</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>17.989030234</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>21.4957211984</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>27.4621621293</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>29.3248488613</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>24.7027610286</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
+      <c r="C6" s="5" t="n">
+        <v>110</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>196.3261906951</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>197.6185482803</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>234.9640932875</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>241.6468882213</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>184.0323359811</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>157.8906332693</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>187.8351986964</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>222.2995222413</v>
+        <v>167</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>140</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>63.5595123745</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64.2854816895</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>64.814310912</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>45.1642137599</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>26.4796127464</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>24.5433296263</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>28.0937314713</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>40.681586627</v>
+        <v>184</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>103</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>132.7666783205</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133.3330665907</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>170.1497823755</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>196.4826744614</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>157.5527232347</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>133.347303643</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>159.7414672251</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>181.6179356142</v>
+        <v>147</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>120</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>76.879630253</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74.9283627066</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>76.8781635971</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>97.7526503311</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>82.8236808357</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>71.1085967231</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>69.0370161432</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>77.0138635447</v>
+        <v>176</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>108</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>51.1000000264</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43.2464882897</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>64.0707613372</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>70.8235419171</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>35.0522946677</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>22.5241256772</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>53.429585135</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>68.4646115127</v>
+        <v>156</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>126.2765169099</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>22.308794536</v>
+        <v>62.2201782249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28.9211087293</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>30.7196188167</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>24.6804837547</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>24.8291110833</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>24.0504314068</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>25.3225102942</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>29.919233686</v>
+        <v>188.4966951348</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>132.7666783205</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.527053599</v>
+        <v>63.5595123745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24.8313985492</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>16.703846628</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>20.6662277465</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>21.2808810305</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>16.7152273502</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>17.2022678606</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>18.7042377295</v>
+        <v>196.3261906951</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>133.3330665907</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>13.1469309911</v>
+        <v>64.2854816895</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.8264607543</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>19.7072639547</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>12.557648907</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>7.5929343418</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>10.0855824245</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>8.9655544803</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>10.0316405041</v>
+        <v>197.6185482803</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>170.1497823755</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.4775495775</v>
+        <v>64.814310912</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.0940493569</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>3.4165627789</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>6.1716281504</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>1.7101715959</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>5.6911849995</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>4.8220404759</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>7.773033003</v>
+        <v>234.9640932875</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>196.4826744614</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.886231712</v>
+        <v>45.1642137599</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.7706798944</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>23.4678761749</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>8.9947074146</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>10.7432624261</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>7.715484688</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>9.0562243073</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>10.3929022613</v>
+        <v>241.6468882213</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>40.4246351442</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>41.3378081456</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>35.4963071834</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>41.1490929613</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>36.5937899401</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>36.4642301024</v>
-      </c>
-      <c r="J16" s="7" t="n">
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="7" t="n">
-        <v>38.6473972167</v>
+      <c r="C16" s="5" t="n">
+        <v>157.5527232347</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>26.4796127464</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>184.0323359811</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>133.347303643</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>24.5433296263</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>157.8906332693</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="2" t="s">
-        <v>26</v>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>159.7414672251</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>28.0937314713</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>187.8351986964</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>27</v>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>181.6179356142</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>40.681586627</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>222.2995222413</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
